--- a/biology/Histoire de la zoologie et de la botanique/Régis_Courtecuisse/Régis_Courtecuisse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Régis_Courtecuisse/Régis_Courtecuisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Courtecuisse</t>
+          <t>Régis_Courtecuisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Régis Courtecuisse, né le 30 avril 1956 à Douai, est un mycologue français, docteur en pharmacie de l'université Lille-II et docteur en sciences de l'université Paris-Sud.
 Il est actuellement professeur à la Faculté des sciences pharmaceutiques et biologiques de l'université Lille-II. Il est considéré comme l'un des plus grands mycologues actuels, et ses travaux font autorité dans le monde entier. Il a grandement contribué à dépoussiérer la classification traditionnelle des champignons. Il a été élu de 2006 à 2017 président de la Société mycologique de France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Courtecuisse</t>
+          <t>Régis_Courtecuisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1986 : Clé de détermination macroscopique des champignons supérieurs des régions du Nord de la France (CRDP Amiens).
 1991 : Premier atlas microphotographique pour l'expertise et le contrôle des champignons comestibles et leurs falsifications (Montpellier).
